--- a/concrete_case/cc_veh_truck_target.xlsx
+++ b/concrete_case/cc_veh_truck_target.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>主车从300m远处，以限速巡航驶向静止目标车, 平直路</t>
+          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在平直路 (平直路)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在弯中, 700m curve</t>
+          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在弯中 (700mcurve)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在出弯处, 700m curve</t>
+          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在出弯处 (700mcurve)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在上坡, 3% uphill</t>
+          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在上坡 (3%uphill)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在坡顶, 3% uphill</t>
+          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在坡顶 (3%uphill)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>目标车从后方高速cutin然后减速，主车以限速行驶并响应, 平直路， tv相距hv40m时， 初速度120kph, 目标速度40kph， 以-3mpss加速度</t>
+          <t>目标车从侧后方高速cutin后减速。目标车从tv_initial减速至tv_target，减速度tv_acc，相对主车距离relative_dis。主车以限速行驶并响应 (平直路)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>目标车从后方高速cutin然后减速，主车以限速行驶并响应, 700m curve， tv相距hv40m时， 初速度120kph, 目标速度40kph， 以-3mpss加速度</t>
+          <t>目标车从侧后方高速cutin后减速。目标车从tv_initial减速至tv_target，减速度tv_acc，相对主车距离relative_dis。主车以限速行驶并响应 (700mcurve)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>目标车从后方高速cutin然后减速，主车以限速行驶并响应, 3% uphill， tv相距hv40m时， 初速度120kph, 目标速度40kph， 以-3mpss加速度</t>
+          <t>目标车从侧后方高速cutin后减速。目标车从tv_initial减速至tv_target，减速度tv_acc，相对主车距离relative_dis。主车以限速行驶并响应 (3%uphill)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>目标车从后方高速cutin然后减速，主车以限速行驶并响应, 3% downhill， tv相距hv40m时， 初速度120kph, 目标速度40kph， 以-3mpss加速度</t>
+          <t>目标车从侧后方高速cutin后减速。目标车从tv_initial减速至tv_target，减速度tv_acc，相对主车距离relative_dis。主车以限速行驶并响应 (3%downhill)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">

--- a/concrete_case/cc_veh_truck_target.xlsx
+++ b/concrete_case/cc_veh_truck_target.xlsx
@@ -590,7 +590,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在弯中 (700mcurve)</t>
+          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在弯中 (700m_curve)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在出弯处 (700mcurve)</t>
+          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在出弯处 (700m_curve)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在上坡 (3%uphill)</t>
+          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在上坡 (3%_uphill)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在坡顶 (3%uphill)</t>
+          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在坡顶 (3%_uphill)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>目标车从侧后方高速cutin后减速。目标车从tv_initial减速至tv_target，减速度tv_acc，相对主车距离relative_dis。主车以限速行驶并响应 (平直路)</t>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离40m。主车以限速行驶并响应 (平直路)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>目标车从侧后方高速cutin后减速。目标车从tv_initial减速至tv_target，减速度tv_acc，相对主车距离relative_dis。主车以限速行驶并响应 (700mcurve)</t>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离40m。主车以限速行驶并响应 (700m_curve)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>目标车从侧后方高速cutin后减速。目标车从tv_initial减速至tv_target，减速度tv_acc，相对主车距离relative_dis。主车以限速行驶并响应 (3%uphill)</t>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离40m。主车以限速行驶并响应 (3%_uphill)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>目标车从侧后方高速cutin后减速。目标车从tv_initial减速至tv_target，减速度tv_acc，相对主车距离relative_dis。主车以限速行驶并响应 (3%downhill)</t>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离40m。主车以限速行驶并响应 (3%_downhill)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">

--- a/concrete_case/cc_veh_truck_target.xlsx
+++ b/concrete_case/cc_veh_truck_target.xlsx
@@ -544,38 +544,6 @@
           <t>平直路</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1）初速度0kph
-2）与主车同车道；
-3）在主车前方400m处，平直路上；</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1）主车能够正确响应目标车；
-2）主车应当及时发现目标并减速，减速不能太早或过晚；
-3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
-4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
-5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；
-</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -623,38 +591,6 @@
           <t>curve</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1）初速度0kph
-2）与主车同车道；
-3）在主车前方400m处，弯中；</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1）主车能够正确响应目标车；
-2）主车应当及时发现目标并减速，减速不能太早或过晚；
-3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
-4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
-5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；
-</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -702,38 +638,6 @@
           <t>curve</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>1）初速度0kph
-2）与主车同车道；
-3）在主车前方400m处，出弯处；</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1）主车能够正确响应目标车；
-2）主车应当及时发现目标并减速，减速不能太早或过晚；
-3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
-4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
-5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；
-</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -781,38 +685,6 @@
           <t>uphill</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>1）初速度0kph
-2）与主车同车道；
-3）在主车前方400m处，上坡；</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1）主车能够正确响应目标车；
-2）主车应当及时发现目标并减速，减速不能太早或过晚；
-3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
-4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
-5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；
-</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -860,38 +732,6 @@
           <t>uphill</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>1）初速度0kph
-2）与主车同车道；
-3）在主车前方400m处，坡顶；</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1）主车能够正确响应目标车；
-2）主车应当及时发现目标并减速，减速不能太早或过晚；
-3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
-4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
-5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；
-</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -939,38 +779,6 @@
           <t>平直路</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>1）初速度120kph
-2）与主车相邻车道
-3）在目标车后方100m</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>1）超越本车30m时，目标车cutin；
-2）cutin后以1mps减速度，从120减速到40kph；</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
-2）主车应当及时发现目标并减速，减速不能太早或过晚；
-3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
-4）主车最终能与目标车重新达到跟车稳态；
-5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1018,38 +826,6 @@
           <t>curve</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>1）初速度120kph
-2）与主车相邻车道
-3）在目标车后方100m</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>1）超越本车30m时，目标车cutin；
-2）cutin后以1mps减速度，从120减速到40kph；</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
-2）主车应当及时发现目标并减速，减速不能太早或过晚；
-3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
-4）主车最终能与目标车重新达到跟车稳态；
-5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1097,38 +873,6 @@
           <t>uphill</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>1）初速度120kph
-2）与主车相邻车道
-3）在目标车后方100m</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>1）超越本车30m时，目标车cutin；
-2）cutin后以1mps减速度，从120减速到40kph；</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
-2）主车应当及时发现目标并减速，减速不能太早或过晚；
-3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
-4）主车最终能与目标车重新达到跟车稳态；
-5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1174,38 +918,6 @@
       <c r="I10" t="inlineStr">
         <is>
           <t>downhill</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>1）初速度120kph
-2）与主车相邻车道
-3）在目标车后方100m</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>1）超越本车30m时，目标车cutin；
-2）cutin后以1mps减速度，从120减速到40kph；</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
-2）主车应当及时发现目标并减速，减速不能太早或过晚；
-3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
-4）主车最终能与目标车重新达到跟车稳态；
-5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
         </is>
       </c>
     </row>

--- a/concrete_case/cc_veh_truck_target.xlsx
+++ b/concrete_case/cc_veh_truck_target.xlsx
@@ -544,6 +544,37 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1）初速度0kph
+2）与主车同车道；
+3）在主车前方400m处，平直路上；</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -591,6 +622,37 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1）初速度0kph
+2）与主车同车道；
+3）在主车前方400m处，弯中；</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -638,6 +700,37 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1）初速度0kph
+2）与主车同车道；
+3）在主车前方400m处，出弯处；</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -685,6 +778,37 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1）初速度0kph
+2）与主车同车道；
+3）在主车前方400m处，上坡；</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -732,6 +856,37 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1）初速度0kph
+2）与主车同车道；
+3）在主车前方400m处，坡顶；</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -779,6 +934,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -826,6 +1013,38 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -873,6 +1092,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -918,6 +1169,38 @@
       <c r="I10" t="inlineStr">
         <is>
           <t>downhill</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
         </is>
       </c>
     </row>
